--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1007,34 +1007,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
         <v>64.56</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.61</v>
+        <v>0.09</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1058,14 +1058,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1080,30 +1080,30 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
         <v>64.56</v>
       </c>
       <c r="P9" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09</v>
+        <v>0.61</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1176,7 +1176,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1188,11 +1188,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1200,14 +1196,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1222,34 +1218,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="O11" t="n">
-        <v>63.73</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.28</v>
+        <v>0.99</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1261,11 +1257,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1280,7 +1272,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1297,32 +1289,32 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="O12" t="n">
-        <v>63.67</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_17_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1353,7 +1345,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1375,27 +1367,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="O13" t="n">
-        <v>63.46</v>
+        <v>63.73</v>
       </c>
       <c r="P13" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1419,14 +1411,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1441,34 +1433,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="O14" t="n">
-        <v>63.4</v>
+        <v>63.67</v>
       </c>
       <c r="P14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1515,33 +1507,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O15" t="n">
-        <v>63.12</v>
+        <v>63.46</v>
       </c>
       <c r="P15" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1565,14 +1557,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1587,34 +1579,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="O16" t="n">
-        <v>63.05</v>
+        <v>63.4</v>
       </c>
       <c r="P16" t="n">
         <v>0.11</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1645,7 +1637,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1661,33 +1653,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="O17" t="n">
-        <v>62.85</v>
+        <v>63.12</v>
       </c>
       <c r="P17" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1711,7 +1703,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1733,34 +1725,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="O18" t="n">
-        <v>62.39</v>
+        <v>63.05</v>
       </c>
       <c r="P18" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1784,7 +1776,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1806,28 +1798,174 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O19" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O20" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.76</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O21" t="n">
         <v>62.22</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P21" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q21" t="n">
         <v>0.89</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S21" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1218,34 +1218,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="O11" t="n">
-        <v>64.15000000000001</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_07_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>1.38</v>
@@ -1305,16 +1305,16 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_17_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,11 +1326,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1345,7 +1341,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1361,33 +1357,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>63.73</v>
+        <v>64.09</v>
       </c>
       <c r="P13" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-19_14_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,11 +1395,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1418,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1438,29 +1430,29 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.99</v>
+        <v>1.39</v>
       </c>
       <c r="O14" t="n">
-        <v>63.67</v>
+        <v>63.82</v>
       </c>
       <c r="P14" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_46_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1472,11 +1464,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1491,7 +1479,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1513,27 +1501,27 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2.02</v>
+        <v>1.53</v>
       </c>
       <c r="O15" t="n">
-        <v>63.46</v>
+        <v>63.76</v>
       </c>
       <c r="P15" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-18_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1564,7 +1552,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1580,33 +1568,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="O16" t="n">
-        <v>63.4</v>
+        <v>63.73</v>
       </c>
       <c r="P16" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.97</v>
+        <v>0.28</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1630,14 +1618,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1652,9 +1640,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1662,24 +1648,26 @@
         <v>1.99</v>
       </c>
       <c r="O17" t="n">
-        <v>63.12</v>
+        <v>63.67</v>
       </c>
       <c r="P17" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1703,14 +1691,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1725,34 +1713,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="O18" t="n">
-        <v>63.05</v>
+        <v>63.46</v>
       </c>
       <c r="P18" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1783,7 +1771,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1799,33 +1787,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="O19" t="n">
-        <v>62.85</v>
+        <v>63.4</v>
       </c>
       <c r="P19" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.18</v>
+        <v>0.97</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1856,7 +1844,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1872,33 +1860,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="O20" t="n">
-        <v>62.39</v>
+        <v>63.12</v>
       </c>
       <c r="P20" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.74</v>
+        <v>0.24</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1949,23 +1937,242 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O21" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O22" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O23" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.76</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O24" t="n">
         <v>62.22</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P24" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q24" t="n">
         <v>0.89</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S24" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -673,7 +673,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -726,14 +726,14 @@
         <v>66.05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_25_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,11 +900,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -919,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -939,20 +935,20 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O7" t="n">
-        <v>65</v>
+        <v>65.28</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -961,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -973,11 +969,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -985,14 +977,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1007,34 +999,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="O8" t="n">
-        <v>64.56</v>
+        <v>65.16</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1046,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1065,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1081,33 +1069,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="O9" t="n">
-        <v>64.56</v>
+        <v>65.14</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1127,14 +1115,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1149,34 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
-        <v>64.45</v>
+        <v>65.09</v>
       </c>
       <c r="P10" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.14</v>
+        <v>1.19</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_24_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1188,7 +1176,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1196,14 +1188,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1218,34 +1210,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
-        <v>64.23999999999999</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_07_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1257,7 +1249,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1272,7 +1268,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1292,29 +1288,29 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="O12" t="n">
-        <v>64.15000000000001</v>
+        <v>64.56</v>
       </c>
       <c r="P12" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,7 +1322,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1341,7 +1341,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1363,27 +1363,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="O13" t="n">
-        <v>64.09</v>
+        <v>64.56</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.11</v>
+        <v>0.61</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-19_14_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1430,20 +1430,20 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="O14" t="n">
-        <v>63.82</v>
+        <v>64.48</v>
       </c>
       <c r="P14" t="n">
         <v>0.19</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_46_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1501,27 +1501,27 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
-        <v>63.76</v>
+        <v>64.44</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.64</v>
+        <v>0.17</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-18_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>

--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1000,33 +1000,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="O8" t="n">
-        <v>65.16</v>
+        <v>65.28</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_40_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1069,33 +1069,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="O9" t="n">
-        <v>65.14</v>
+        <v>65.16</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1138,33 +1138,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>65.09</v>
+        <v>65.14</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1176,11 +1176,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1188,14 +1184,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1210,34 +1206,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O11" t="n">
-        <v>65</v>
+        <v>65.09</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.57</v>
+        <v>1.19</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1268,7 +1264,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1288,20 +1284,20 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>64.56</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.09</v>
+        <v>0.57</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1383,7 +1379,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1395,7 +1391,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1410,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1430,20 +1430,20 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="O14" t="n">
-        <v>64.48</v>
+        <v>64.56</v>
       </c>
       <c r="P14" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1472,14 +1472,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1494,34 +1494,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O15" t="n">
-        <v>64.44</v>
+        <v>64.48</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1533,11 +1533,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1552,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1574,27 +1570,27 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>63.73</v>
+        <v>64.44</v>
       </c>
       <c r="P16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1618,7 +1614,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1640,34 +1636,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="O17" t="n">
-        <v>63.67</v>
+        <v>63.73</v>
       </c>
       <c r="P17" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1691,14 +1687,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1713,34 +1709,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="O18" t="n">
-        <v>63.46</v>
+        <v>63.67</v>
       </c>
       <c r="P18" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1787,33 +1783,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="O19" t="n">
-        <v>63.4</v>
+        <v>63.46</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1860,33 +1856,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="O20" t="n">
-        <v>63.12</v>
+        <v>63.4</v>
       </c>
       <c r="P20" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.24</v>
+        <v>0.97</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1910,14 +1906,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1932,34 +1928,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="O21" t="n">
-        <v>63.05</v>
+        <v>63.12</v>
       </c>
       <c r="P21" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.13</v>
+        <v>0.24</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1983,7 +1979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2005,34 +2001,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O22" t="n">
-        <v>62.85</v>
+        <v>63.05</v>
       </c>
       <c r="P22" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.18</v>
+        <v>1.13</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2079,33 +2075,33 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="O23" t="n">
-        <v>62.39</v>
+        <v>62.85</v>
       </c>
       <c r="P23" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.74</v>
+        <v>0.18</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2129,7 +2125,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2151,28 +2147,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O24" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.76</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>62.22</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>0.89</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,11 +754,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -766,14 +762,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -788,34 +784,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.07</v>
+        <v>1.72</v>
       </c>
       <c r="O5" t="n">
-        <v>65.68000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-05_26_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_23_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,7 +835,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -861,34 +857,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>65.34999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-05_26_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,7 +911,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -935,29 +931,29 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="O7" t="n">
-        <v>65.28</v>
+        <v>65.64</v>
       </c>
       <c r="P7" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_57_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -984,7 +980,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1003,30 +999,30 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>65.28</v>
+        <v>65.59</v>
       </c>
       <c r="P8" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_40_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_23_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1069,33 +1065,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>65.16</v>
+        <v>65.59</v>
       </c>
       <c r="P9" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-19_00_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1115,14 +1111,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1137,34 +1133,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="O10" t="n">
-        <v>65.14</v>
+        <v>65.56</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_58_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,7 +1187,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1207,33 +1203,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
-        <v>65.09</v>
+        <v>65.44</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1245,11 +1241,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1264,7 +1256,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1284,20 +1276,20 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O12" t="n">
-        <v>65</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_26_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1306,7 +1298,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1330,14 +1322,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1352,34 +1344,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="O13" t="n">
-        <v>64.56</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,11 +1383,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1410,7 +1398,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1430,20 +1418,20 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="O14" t="n">
-        <v>64.56</v>
+        <v>65.28</v>
       </c>
       <c r="P14" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1452,7 +1440,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1472,14 +1460,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1494,34 +1482,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="O15" t="n">
-        <v>64.48</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.14</v>
+        <v>0.91</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_59_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1548,7 +1536,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1564,33 +1552,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O16" t="n">
-        <v>64.44</v>
+        <v>65.16</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1602,11 +1590,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1621,7 +1605,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1643,100 +1627,96 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="O17" t="n">
-        <v>63.73</v>
+        <v>65.14</v>
       </c>
       <c r="P17" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>128</v>
-      </c>
-      <c r="H18" t="n">
-        <v>200</v>
-      </c>
-      <c r="I18" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O18" t="n">
-        <v>63.67</v>
+        <v>65.09</v>
       </c>
       <c r="P18" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.26</v>
+        <v>1.19</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1748,11 +1728,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1767,7 +1743,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1783,33 +1759,33 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
-        <v>63.46</v>
+        <v>65.05</v>
       </c>
       <c r="P19" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.76</v>
+        <v>0.23</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_56_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1833,14 +1809,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1855,34 +1831,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="O20" t="n">
-        <v>63.4</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1894,11 +1870,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1913,7 +1885,7 @@
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1929,33 +1901,33 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>63.12</v>
+        <v>64.95</v>
       </c>
       <c r="P21" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_28_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1967,11 +1939,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1979,14 +1947,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I22" t="n">
         <v>50</v>
@@ -2001,34 +1969,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="O22" t="n">
-        <v>63.05</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.13</v>
+        <v>0.27</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_57_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2040,11 +2008,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2052,14 +2016,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>128</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I23" t="n">
         <v>50</v>
@@ -2074,34 +2038,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O23" t="n">
-        <v>62.85</v>
+        <v>64.62</v>
       </c>
       <c r="P23" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_54_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2125,14 +2089,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>128</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
         <v>50</v>
@@ -2147,101 +2111,896 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>3</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="O24" t="n">
-        <v>62.39</v>
+        <v>64.56</v>
       </c>
       <c r="P24" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O25" t="n">
+        <v>64.56</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O26" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>64.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O28" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>128</v>
+      </c>
+      <c r="H29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O29" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>128</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O30" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O31" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O32" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>128</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O33" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O34" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>128</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O35" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>NCEK</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>128</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.76</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O36" t="n">
         <v>62.22</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P36" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q36" t="n">
         <v>0.89</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S36" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10>AllRes_66.17.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-07_28_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -646,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -685,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -715,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -754,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -784,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -880,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-05_26_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -896,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -926,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -965,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1018,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_23_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1034,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1087,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-19_00_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1103,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1133,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1172,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1225,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1241,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1271,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1344,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1383,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1413,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1452,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1505,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_59_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1521,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1574,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1590,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1643,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1659,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1712,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1728,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1781,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_56_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1831,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1870,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1923,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_28_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1939,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1992,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_57_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2008,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2038,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2111,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2207,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_46_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2223,7 +2339,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2253,7 +2373,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
@@ -2292,7 +2414,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -2345,7 +2471,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_19_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2418,7 +2546,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2468,7 +2598,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
@@ -2564,7 +2696,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_00_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2637,7 +2771,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_45_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2710,7 +2846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2760,7 +2898,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
@@ -2856,7 +2996,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_39_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2929,7 +3071,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-06_07_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2979,7 +3123,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
